--- a/biology/Histoire de la zoologie et de la botanique/Thomas_Walter_(botaniste)/Thomas_Walter_(botaniste).xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Thomas_Walter_(botaniste)/Thomas_Walter_(botaniste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Thomas Walter est un botaniste et un planteur américain d’origine britannique, né vers 1740 à Hampshire (Grande-Bretagne) et mort le 17 janvier 1789 dans le Comté de Berkeley (Caroline du Sud).
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il émigre jeune en Caroline du Sud et acquiert une plantation sur les rives du fleuve Santee. C’est là qu’il passera le reste de sa vie.
 On ignore les détails de sa formation, mais il est probable qu’il ait reçu une bonne éducation. Il étudie intensivement les végétaux dans un rayon de 80 km autour de chez lui.
